--- a/resources/experiment 1/metrics/R2/upto time/Ceguera (UPTO).xlsx
+++ b/resources/experiment 1/metrics/R2/upto time/Ceguera (UPTO).xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6985412122016074</v>
+        <v>0.6994913607464788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6985412122016073</v>
+        <v>0.6994913607464788</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6985412122016073</v>
+        <v>0.6994913607464788</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9821646263896276</v>
+        <v>0.9790096649213884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9822497642612246</v>
+        <v>0.9795082789696985</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9822497642612246</v>
+        <v>0.9793517347724484</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9839623369977999</v>
+        <v>0.9812305404534789</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9839623369977999</v>
+        <v>0.9813911928860608</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9839623369977999</v>
+        <v>0.9811164696555958</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9684864090081327</v>
+        <v>0.8343912838367032</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9682460421940542</v>
+        <v>0.7930020961697489</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9682460421940542</v>
+        <v>0.8023159764513645</v>
       </c>
     </row>
   </sheetData>
